--- a/Docs/Templates/LectureTimetablesTemplate.xlsx
+++ b/Docs/Templates/LectureTimetablesTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Название дисциплины</t>
   </si>
@@ -31,15 +31,6 @@
     <t>Неделя</t>
   </si>
   <si>
-    <t>Инженерные основы информационных технологий</t>
-  </si>
-  <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>317 (2)</t>
-  </si>
-  <si>
     <t>Каждая</t>
   </si>
   <si>
@@ -49,9 +40,6 @@
     <t>Вторник</t>
   </si>
   <si>
-    <t>114 (6)</t>
-  </si>
-  <si>
     <t>Верхняя</t>
   </si>
   <si>
@@ -59,6 +47,48 @@
   </si>
   <si>
     <t>Карпенко С.Н.</t>
+  </si>
+  <si>
+    <t>Математический анализ</t>
+  </si>
+  <si>
+    <t>Геометрия и алгебра</t>
+  </si>
+  <si>
+    <t>Дискретная математика</t>
+  </si>
+  <si>
+    <t>Информатика</t>
+  </si>
+  <si>
+    <t>Шашков В.Н.</t>
+  </si>
+  <si>
+    <t>Шевченко В.Н.</t>
+  </si>
+  <si>
+    <t>Алексеев В.Е.</t>
+  </si>
+  <si>
+    <t>Кузин С.Г.</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>221 (4)</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>Физическая культура</t>
+  </si>
+  <si>
+    <t>Не указан</t>
   </si>
 </sst>
 </file>
@@ -103,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -114,6 +144,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -408,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -428,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -443,109 +474,201 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E5" s="1">
+        <v>338</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E6" s="1">
+        <v>314</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E7" s="1">
+        <v>314</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="E8" s="1">
+        <v>314</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E10" s="1">
+        <v>314</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="E11" s="1">
+        <v>314</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1"/>
@@ -1244,84 +1367,66 @@
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:6">
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:6">
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
     <row r="110" spans="1:6">
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6">
@@ -1343,90 +1448,36 @@
       <c r="F113" s="1"/>
     </row>
     <row r="114" spans="3:6">
-      <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
     <row r="115" spans="3:6">
-      <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
     <row r="116" spans="3:6">
-      <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
     <row r="117" spans="3:6">
-      <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
     <row r="118" spans="3:6">
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
     </row>
     <row r="119" spans="3:6">
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
     </row>
     <row r="120" spans="3:6">
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
     </row>
     <row r="121" spans="3:6">
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="3:6">
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="3:6">
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="3:6">
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="3:6">
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="3:6">
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="3:6">
-      <c r="E127" s="1"/>
-    </row>
-    <row r="128" spans="3:6">
-      <c r="E128" s="1"/>
-    </row>
-    <row r="129" spans="5:5">
-      <c r="E129" s="1"/>
-    </row>
-    <row r="130" spans="5:5">
-      <c r="E130" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
